--- a/heart1.xlsx
+++ b/heart1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ML\Heart Deasease\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5791E-4760-4550-8BEB-29A2256E1382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A0F4D-3E09-4C43-A22A-10F6F6D0554B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
